--- a/docs/StructureDefinition-my-medicationrequest.xlsx
+++ b/docs/StructureDefinition-my-medicationrequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T20:38:23+02:00</t>
+    <t>2025-05-05T10:23:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile based on MedicationRequest.</t>
+    <t>A profile based on MedicationRequest for example a 10-day antibiotic treatment with the treatment goal to reduce infection markers.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -467,20 +467,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:FollowUp</t>
-  </si>
-  <si>
-    <t>FollowUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/FollowUpExtension.id}
+    <t>MedicationRequest.extension:followUp</t>
+  </si>
+  <si>
+    <t>followUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/followup-extension}
 </t>
   </si>
   <si>
     <t>Follow Up</t>
   </si>
   <si>
-    <t>This is an extension for follow up</t>
+    <t>An extension to represent the type and timing of follow-up.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:treatmentGoal</t>

--- a/docs/StructureDefinition-my-medicationrequest.xlsx
+++ b/docs/StructureDefinition-my-medicationrequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:23:37+02:00</t>
+    <t>2025-05-11T16:39:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6920,13 +6920,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-my-medicationrequest.xlsx
+++ b/docs/StructureDefinition-my-medicationrequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:14+02:00</t>
+    <t>2025-06-02T21:24:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-my-medicationrequest.xlsx
+++ b/docs/StructureDefinition-my-medicationrequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T21:24:52+02:00</t>
+    <t>2025-06-02T21:28:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
